--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/NEVADA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/NEVADA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1288"/>
+  <dimension ref="A1:D1282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C36">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C41">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C61">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C92">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C94">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C108">
@@ -1855,7 +1855,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C113">
@@ -2151,7 +2151,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C135">
@@ -2177,7 +2177,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C141">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C156">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C169">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C173">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C178">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C179">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C180">
@@ -2863,12 +2863,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C189">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C191">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C192">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C198">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C203">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C209">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C213">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C224">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C234">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C236">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C253">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C258">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C259">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C260">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C270">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C271">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C276">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C280">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C287">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C291">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C293">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C295">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C297">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C299">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C303">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C307">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C312">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C318">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C323">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C327">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C334">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C336">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C337">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C339">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C342">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C352">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C354">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C356">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C359">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C360">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C374">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C378">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C382">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C384">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C391">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C392">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C393">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C395">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C396">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C397">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C401">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C403">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C405">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C406">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C409">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C417">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C418">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C419">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C422">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C427">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C432">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C434">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C436">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C449">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C457">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C464">
@@ -6476,7 +6476,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C465">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C466">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C470">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C475">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C483">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C487">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C488">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C490">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C491">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C494">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C496">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C497">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C498">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C501">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C502">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C505">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C509">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C510">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C513">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C514">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C525">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C526">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C527">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C532">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C533">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C536">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C537">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C538">
@@ -7742,7 +7742,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C562">
@@ -7768,7 +7768,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C564">
@@ -8548,7 +8548,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C624">
@@ -8878,7 +8878,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C649">
@@ -9008,7 +9008,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C659">
@@ -9086,7 +9086,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C665">
@@ -9164,7 +9164,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C671">
@@ -9221,7 +9221,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C675">
@@ -9234,7 +9234,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C676">
@@ -9286,7 +9286,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C680">
@@ -9377,7 +9377,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C687">
@@ -9551,7 +9551,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C700">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C704">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C707">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C708">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C711">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C713">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C714">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C715">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C716">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C717">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C718">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C719">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C724">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C727">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C729">
@@ -9946,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C730">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C731">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C760">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C790">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C791">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C795">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C796">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C806">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C817">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C820">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C824">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C853">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C854">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C855">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C857">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C860">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C861">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C862">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C863">
@@ -11901,7 +11901,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C880">
@@ -12083,7 +12083,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C894">
@@ -12096,7 +12096,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C895">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C900">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C901">
@@ -12226,7 +12226,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C905">
@@ -12265,7 +12265,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C908">
@@ -12356,7 +12356,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C915">
@@ -12369,7 +12369,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C916">
@@ -12434,7 +12434,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C921">
@@ -12642,7 +12642,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C937">
@@ -12668,7 +12668,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C939">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C940">
@@ -12824,7 +12824,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C951">
@@ -12837,7 +12837,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C952">
@@ -12876,7 +12876,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C955">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C957">
@@ -12915,7 +12915,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C958">
@@ -12967,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C962">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C976">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C985">
@@ -13297,7 +13297,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C987">
@@ -13349,7 +13349,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C991">
@@ -13401,7 +13401,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C995">
@@ -13502,7 +13502,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1002">
@@ -13580,7 +13580,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1008">
@@ -13658,7 +13658,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1014">
@@ -13671,7 +13671,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1015">
@@ -13684,7 +13684,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1016">
@@ -14175,7 +14175,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1053">
@@ -14253,7 +14253,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1059">
@@ -14414,7 +14414,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1071">
@@ -14749,7 +14749,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1096">
@@ -14827,7 +14827,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1102">
@@ -14840,7 +14840,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1103">
@@ -14866,7 +14866,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1105">
@@ -14892,7 +14892,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1107">
@@ -15066,7 +15066,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1120">
@@ -15183,7 +15183,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1129">
@@ -15326,7 +15326,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1140">
@@ -15339,7 +15339,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1141">
@@ -15482,7 +15482,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1152">
@@ -15495,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1153">
@@ -15508,7 +15508,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1154">
@@ -15612,7 +15612,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1162">
@@ -15690,7 +15690,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1168">
@@ -15703,7 +15703,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1169">
@@ -15859,7 +15859,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1181">
@@ -15937,7 +15937,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1187">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1189">
@@ -16002,7 +16002,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1192">
@@ -16262,7 +16262,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1212">
@@ -16353,7 +16353,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1219">
@@ -16636,7 +16636,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1240">
@@ -16662,7 +16662,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1242">
@@ -16766,7 +16766,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1250">
@@ -16857,7 +16857,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1257">
@@ -16922,7 +16922,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1262">
@@ -16935,7 +16935,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1263">
@@ -17065,7 +17065,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1273">
@@ -17078,7 +17078,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1274">
@@ -17117,7 +17117,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1277">
@@ -17190,41 +17190,6 @@
       </c>
       <c r="D1282">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
